--- a/Physik/Praktikum/Versuch Wechselstromkreise/Ergebnisse.xlsx
+++ b/Physik/Praktikum/Versuch Wechselstromkreise/Ergebnisse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/moritz_wieland_bwedu_de/Documents/Module/Physik/Praktikum/Versuch Wechselstromkreise/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritz/git/university/Physik/Praktikum/Versuch Wechselstromkreise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="8_{59B083AB-19E2-1B4A-93F4-ADEDAC30E7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A1E965B-C15D-A245-8D6F-61CE6EBFCA8A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FE897B-4948-E947-980D-6FE82A6C2920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="22100" windowWidth="28800" windowHeight="17500" xr2:uid="{F4BED38F-A8A5-2047-B117-D141C0E24844}"/>
+    <workbookView xWindow="11400" yWindow="28800" windowWidth="28800" windowHeight="18000" xr2:uid="{F4BED38F-A8A5-2047-B117-D141C0E24844}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>U_m in mV</t>
   </si>
@@ -124,6 +124,9 @@
   <si>
     <t>Fehler in mV</t>
   </si>
+  <si>
+    <t>Spule</t>
+  </si>
 </sst>
 </file>
 
@@ -205,11 +208,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2352,10 +2355,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2655,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF9429E-E484-BD42-B16F-663A36970649}">
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2677,27 +2676,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="O1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="O1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2816,7 +2815,7 @@
         <f>2*PI()*K3</f>
         <v>6283.1853071795858</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <f>1/(I3*L3)</f>
         <v>4.5969014371856815E-6</v>
       </c>
@@ -2881,7 +2880,7 @@
         <v>82</v>
       </c>
       <c r="W4" s="1">
-        <f t="shared" ref="W4:W11" si="0">$U4/$T4*$V4</f>
+        <f>$U4/$T4*$V4</f>
         <v>4100</v>
       </c>
       <c r="X4" s="1">
@@ -2891,15 +2890,15 @@
         <v>2500</v>
       </c>
       <c r="Z4" s="1">
-        <f t="shared" ref="Z4:Z11" si="1">2*PI()*$S4</f>
+        <f t="shared" ref="Z4:Z11" si="0">2*PI()*$S4</f>
         <v>2513.2741228718346</v>
       </c>
       <c r="AA4" s="1">
-        <f t="shared" ref="AA4:AA11" si="2">$X4/$Y4 * 360</f>
+        <f t="shared" ref="AA4:AA11" si="1">$X4/$Y4 * 360</f>
         <v>-28.8</v>
       </c>
       <c r="AC4" s="1">
-        <f t="shared" ref="AC4:AC11" si="3">$U4/$T4*$V4</f>
+        <f t="shared" ref="AC4:AC11" si="2">$U4/$T4*$V4</f>
         <v>4100</v>
       </c>
     </row>
@@ -2917,7 +2916,7 @@
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <f>J3/1000000</f>
         <v>1E-3</v>
       </c>
@@ -2938,7 +2937,7 @@
         <v>82</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="W4:W11" si="3">$U5/$T5*$V5</f>
         <v>4100</v>
       </c>
       <c r="X5" s="1">
@@ -2948,15 +2947,15 @@
         <v>1000</v>
       </c>
       <c r="Z5" s="1">
+        <f t="shared" si="0"/>
+        <v>6283.1853071795858</v>
+      </c>
+      <c r="AA5" s="1">
         <f t="shared" si="1"/>
-        <v>6283.1853071795858</v>
-      </c>
-      <c r="AA5" s="1">
+        <v>-36</v>
+      </c>
+      <c r="AC5" s="1">
         <f t="shared" si="2"/>
-        <v>-36</v>
-      </c>
-      <c r="AC5" s="1">
-        <f t="shared" si="3"/>
         <v>4100</v>
       </c>
     </row>
@@ -2983,7 +2982,7 @@
         <v>82</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2928.5714285714284</v>
       </c>
       <c r="X6" s="1">
@@ -2993,15 +2992,15 @@
         <v>500</v>
       </c>
       <c r="Z6" s="1">
+        <f t="shared" si="0"/>
+        <v>12566.370614359172</v>
+      </c>
+      <c r="AA6" s="1">
         <f t="shared" si="1"/>
-        <v>12566.370614359172</v>
-      </c>
-      <c r="AA6" s="1">
+        <v>-54</v>
+      </c>
+      <c r="AC6" s="1">
         <f t="shared" si="2"/>
-        <v>-54</v>
-      </c>
-      <c r="AC6" s="1">
-        <f t="shared" si="3"/>
         <v>2928.5714285714284</v>
       </c>
     </row>
@@ -3019,7 +3018,7 @@
         <v>82</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1863.6363636363635</v>
       </c>
       <c r="X7" s="1">
@@ -3029,15 +3028,15 @@
         <v>250</v>
       </c>
       <c r="Z7" s="1">
+        <f t="shared" si="0"/>
+        <v>25132.741228718343</v>
+      </c>
+      <c r="AA7" s="1">
         <f t="shared" si="1"/>
-        <v>25132.741228718343</v>
-      </c>
-      <c r="AA7" s="1">
+        <v>-72</v>
+      </c>
+      <c r="AC7" s="1">
         <f t="shared" si="2"/>
-        <v>-72</v>
-      </c>
-      <c r="AC7" s="1">
-        <f t="shared" si="3"/>
         <v>1863.6363636363635</v>
       </c>
     </row>
@@ -3067,7 +3066,7 @@
         <v>82</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>745.4545454545455</v>
       </c>
       <c r="X8" s="1">
@@ -3077,15 +3076,15 @@
         <v>100</v>
       </c>
       <c r="Z8" s="1">
+        <f t="shared" si="0"/>
+        <v>62831.853071795864</v>
+      </c>
+      <c r="AA8" s="1">
         <f t="shared" si="1"/>
-        <v>62831.853071795864</v>
-      </c>
-      <c r="AA8" s="1">
+        <v>-79.2</v>
+      </c>
+      <c r="AC8" s="1">
         <f t="shared" si="2"/>
-        <v>-79.2</v>
-      </c>
-      <c r="AC8" s="1">
-        <f t="shared" si="3"/>
         <v>745.4545454545455</v>
       </c>
     </row>
@@ -3117,7 +3116,7 @@
         <v>82</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>410</v>
       </c>
       <c r="X9" s="1">
@@ -3127,15 +3126,15 @@
         <v>50</v>
       </c>
       <c r="Z9" s="1">
+        <f t="shared" si="0"/>
+        <v>125663.70614359173</v>
+      </c>
+      <c r="AA9" s="1">
         <f t="shared" si="1"/>
-        <v>125663.70614359173</v>
-      </c>
-      <c r="AA9" s="1">
+        <v>-79.2</v>
+      </c>
+      <c r="AC9" s="1">
         <f t="shared" si="2"/>
-        <v>-79.2</v>
-      </c>
-      <c r="AC9" s="1">
-        <f t="shared" si="3"/>
         <v>410</v>
       </c>
     </row>
@@ -3159,7 +3158,7 @@
         <v>82</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="X10" s="1">
@@ -3169,15 +3168,15 @@
         <v>25</v>
       </c>
       <c r="Z10" s="1">
+        <f t="shared" si="0"/>
+        <v>251327.41228718346</v>
+      </c>
+      <c r="AA10" s="1">
         <f t="shared" si="1"/>
-        <v>251327.41228718346</v>
-      </c>
-      <c r="AA10" s="1">
+        <v>-86.399999999999991</v>
+      </c>
+      <c r="AC10" s="1">
         <f t="shared" si="2"/>
-        <v>-86.399999999999991</v>
-      </c>
-      <c r="AC10" s="1">
-        <f t="shared" si="3"/>
         <v>205</v>
       </c>
     </row>
@@ -3213,7 +3212,7 @@
         <v>82</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>124.24242424242424</v>
       </c>
       <c r="X11" s="1">
@@ -3223,15 +3222,15 @@
         <v>12.5</v>
       </c>
       <c r="Z11" s="1">
+        <f t="shared" si="0"/>
+        <v>502654.82457436691</v>
+      </c>
+      <c r="AA11" s="1">
         <f t="shared" si="1"/>
-        <v>502654.82457436691</v>
-      </c>
-      <c r="AA11" s="1">
+        <v>-86.399999999999991</v>
+      </c>
+      <c r="AC11" s="1">
         <f t="shared" si="2"/>
-        <v>-86.399999999999991</v>
-      </c>
-      <c r="AC11" s="1">
-        <f t="shared" si="3"/>
         <v>124.24242424242424</v>
       </c>
     </row>
